--- a/src/test/resources/case17/test_case_备份.xlsx
+++ b/src/test/resources/case17/test_case_备份.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\citestproject\src\test\resources\case17\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="8835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
     <sheet name="接口的基本信息" sheetId="2" r:id="rId2"/>
     <sheet name="表数据验证" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E24"/>
 </workbook>
 </file>
 
@@ -482,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1040,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD16"/>
     </sheetView>
   </sheetViews>
